--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H2">
         <v>0.109032</v>
       </c>
       <c r="I2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J2">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N2">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O2">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P2">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q2">
-        <v>1.183583780045333</v>
+        <v>1.512192756536</v>
       </c>
       <c r="R2">
-        <v>10.652254020408</v>
+        <v>13.609734808824</v>
       </c>
       <c r="S2">
-        <v>0.003421509769817733</v>
+        <v>0.004540764546120576</v>
       </c>
       <c r="T2">
-        <v>0.003421509769817732</v>
+        <v>0.004540764546120578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H3">
         <v>0.109032</v>
       </c>
       <c r="I3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J3">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P3">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q3">
         <v>1.484844780906666</v>
@@ -638,10 +638,10 @@
         <v>13.36360302816</v>
       </c>
       <c r="S3">
-        <v>0.004292396541916486</v>
+        <v>0.004458644910505928</v>
       </c>
       <c r="T3">
-        <v>0.004292396541916484</v>
+        <v>0.00445864491050593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H4">
         <v>0.109032</v>
       </c>
       <c r="I4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J4">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N4">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O4">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P4">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q4">
-        <v>0.001373536677333333</v>
+        <v>0.008727841994666667</v>
       </c>
       <c r="R4">
-        <v>0.012361830096</v>
+        <v>0.078550577952</v>
       </c>
       <c r="S4">
-        <v>3.970626532681096E-06</v>
+        <v>2.62076876920824E-05</v>
       </c>
       <c r="T4">
-        <v>3.970626532681096E-06</v>
+        <v>2.620768769208241E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H5">
         <v>0.109032</v>
       </c>
       <c r="I5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J5">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N5">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O5">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P5">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q5">
-        <v>0.1430919007466666</v>
+        <v>0.2285628608853333</v>
       </c>
       <c r="R5">
-        <v>1.28782710672</v>
+        <v>2.057065747968</v>
       </c>
       <c r="S5">
-        <v>0.0004136507652781092</v>
+        <v>0.0006863213243035419</v>
       </c>
       <c r="T5">
-        <v>0.0004136507652781091</v>
+        <v>0.0006863213243035421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03634399999999999</v>
+        <v>0.036344</v>
       </c>
       <c r="H6">
         <v>0.109032</v>
       </c>
       <c r="I6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293871</v>
       </c>
       <c r="J6">
-        <v>0.008139134469725669</v>
+        <v>0.009713078795293874</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N6">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O6">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q6">
-        <v>0.002631366173333333</v>
+        <v>0.000379758456</v>
       </c>
       <c r="R6">
-        <v>0.02368229556</v>
+        <v>0.003417826104</v>
       </c>
       <c r="S6">
-        <v>7.606766180661132E-06</v>
+        <v>1.140326671742816E-06</v>
       </c>
       <c r="T6">
-        <v>7.606766180661129E-06</v>
+        <v>1.140326671742816E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I7">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J7">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N7">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O7">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P7">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q7">
-        <v>105.2305871666039</v>
+        <v>134.4466985457283</v>
       </c>
       <c r="R7">
-        <v>947.0752844994349</v>
+        <v>1210.020286911555</v>
       </c>
       <c r="S7">
-        <v>0.3042010951353197</v>
+        <v>0.4037122909501718</v>
       </c>
       <c r="T7">
-        <v>0.3042010951353197</v>
+        <v>0.4037122909501719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I8">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J8">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>122.56588</v>
       </c>
       <c r="O8">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P8">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q8">
         <v>132.0152327029111</v>
@@ -948,10 +948,10 @@
         <v>1188.1370943262</v>
       </c>
       <c r="S8">
-        <v>0.3816302792189931</v>
+        <v>0.3964111622769604</v>
       </c>
       <c r="T8">
-        <v>0.381630279218993</v>
+        <v>0.3964111622769605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I9">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J9">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N9">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O9">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P9">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q9">
-        <v>0.1221190028855555</v>
+        <v>0.7759788139044443</v>
       </c>
       <c r="R9">
-        <v>1.09907102597</v>
+        <v>6.983809325139998</v>
       </c>
       <c r="S9">
-        <v>0.0003530222097478596</v>
+        <v>0.002330084621480009</v>
       </c>
       <c r="T9">
-        <v>0.0003530222097478596</v>
+        <v>0.00233008462148001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I10">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J10">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N10">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O10">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P10">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q10">
-        <v>12.72207763254444</v>
+        <v>20.32116734019555</v>
       </c>
       <c r="R10">
-        <v>114.4986986929</v>
+        <v>182.89050606176</v>
       </c>
       <c r="S10">
-        <v>0.03677704413156392</v>
+        <v>0.06101975809321807</v>
       </c>
       <c r="T10">
-        <v>0.03677704413156392</v>
+        <v>0.06101975809321809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>9.693864999999999</v>
       </c>
       <c r="I11">
-        <v>0.7236377464080932</v>
+        <v>0.8635746806069907</v>
       </c>
       <c r="J11">
-        <v>0.7236377464080933</v>
+        <v>0.8635746806069909</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N11">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O11">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P11">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q11">
-        <v>0.2339506608138889</v>
+        <v>0.03376373179499999</v>
       </c>
       <c r="R11">
-        <v>2.105555947325</v>
+        <v>0.303873586155</v>
       </c>
       <c r="S11">
-        <v>0.0006763057124687671</v>
+        <v>0.0001013846651604498</v>
       </c>
       <c r="T11">
-        <v>0.0006763057124687669</v>
+        <v>0.0001013846651604499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H12">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J12">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N12">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O12">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P12">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q12">
-        <v>17.51866173842633</v>
+        <v>8.491244151238332</v>
       </c>
       <c r="R12">
-        <v>157.667955645837</v>
+        <v>76.42119736114499</v>
       </c>
       <c r="S12">
-        <v>0.05064303288260844</v>
+        <v>0.02549723917651819</v>
       </c>
       <c r="T12">
-        <v>0.05064303288260844</v>
+        <v>0.02549723917651819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H13">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J13">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>122.56588</v>
       </c>
       <c r="O13">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P13">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q13">
-        <v>21.97773735102666</v>
+        <v>8.33768017131111</v>
       </c>
       <c r="R13">
-        <v>197.79963615924</v>
+        <v>75.03912154179999</v>
       </c>
       <c r="S13">
-        <v>0.06353335043349924</v>
+        <v>0.02503612211812676</v>
       </c>
       <c r="T13">
-        <v>0.06353335043349922</v>
+        <v>0.02503612211812677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H14">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J14">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N14">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O14">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P14">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q14">
-        <v>0.02033022489933333</v>
+        <v>0.04900845938444444</v>
       </c>
       <c r="R14">
-        <v>0.182972024094</v>
+        <v>0.4410761344599999</v>
       </c>
       <c r="S14">
-        <v>5.877071339470068E-05</v>
+        <v>0.0001471610506471685</v>
       </c>
       <c r="T14">
-        <v>5.877071339470068E-05</v>
+        <v>0.0001471610506471685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H15">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J15">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N15">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O15">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P15">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q15">
-        <v>2.117956201286667</v>
+        <v>1.283423060515555</v>
       </c>
       <c r="R15">
-        <v>19.06160581158</v>
+        <v>11.55080754464</v>
       </c>
       <c r="S15">
-        <v>0.006122598126911494</v>
+        <v>0.00385382214381997</v>
       </c>
       <c r="T15">
-        <v>0.006122598126911493</v>
+        <v>0.00385382214381997</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.537941</v>
+        <v>0.2040783333333333</v>
       </c>
       <c r="H16">
-        <v>1.613823</v>
+        <v>0.612235</v>
       </c>
       <c r="I16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589353</v>
       </c>
       <c r="J16">
-        <v>0.1204703427189824</v>
+        <v>0.05454074763589354</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N16">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O16">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P16">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q16">
-        <v>0.03894782496833334</v>
+        <v>0.002132414505</v>
       </c>
       <c r="R16">
-        <v>0.3505304247150001</v>
+        <v>0.019191730545</v>
       </c>
       <c r="S16">
-        <v>0.0001125905625685403</v>
+        <v>6.403146781444555E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001125905625685403</v>
+        <v>6.403146781444557E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H17">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I17">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J17">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N17">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O17">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P17">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q17">
-        <v>5.125139651561222</v>
+        <v>6.088950261741667</v>
       </c>
       <c r="R17">
-        <v>46.126256864051</v>
+        <v>54.800552355675</v>
       </c>
       <c r="S17">
-        <v>0.01481577872655988</v>
+        <v>0.01828370712140093</v>
       </c>
       <c r="T17">
-        <v>0.01481577872655988</v>
+        <v>0.01828370712140093</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H18">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I18">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J18">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>122.56588</v>
       </c>
       <c r="O18">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P18">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q18">
-        <v>6.429656262057778</v>
+        <v>5.978831718555555</v>
       </c>
       <c r="R18">
-        <v>57.86690635852</v>
+        <v>53.80948546699999</v>
       </c>
       <c r="S18">
-        <v>0.0185868817130612</v>
+        <v>0.01795304664534142</v>
       </c>
       <c r="T18">
-        <v>0.0185868817130612</v>
+        <v>0.01795304664534142</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H19">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I19">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J19">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N19">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O19">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P19">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q19">
-        <v>0.005947671306888888</v>
+        <v>0.03514326832222222</v>
       </c>
       <c r="R19">
-        <v>0.053529041762</v>
+        <v>0.3162894149</v>
       </c>
       <c r="S19">
-        <v>1.719355725152426E-05</v>
+        <v>0.0001055270937799589</v>
       </c>
       <c r="T19">
-        <v>1.719355725152426E-05</v>
+        <v>0.0001055270937799589</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1573763333333333</v>
+        <v>0.1463416666666667</v>
       </c>
       <c r="H20">
-        <v>0.472129</v>
+        <v>0.439025</v>
       </c>
       <c r="I20">
-        <v>0.03524397808035357</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="J20">
-        <v>0.03524397808035358</v>
+        <v>0.03911039344507936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N20">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O20">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P20">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q20">
-        <v>0.6196147553711111</v>
+        <v>0.9203244001777777</v>
       </c>
       <c r="R20">
-        <v>5.576532798340001</v>
+        <v>8.2829196016</v>
       </c>
       <c r="S20">
-        <v>0.001791185359894237</v>
+        <v>0.002763520979183749</v>
       </c>
       <c r="T20">
-        <v>0.001791185359894237</v>
+        <v>0.002763520979183749</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1463416666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.439025</v>
+      </c>
+      <c r="I21">
+        <v>0.03911039344507936</v>
+      </c>
+      <c r="J21">
+        <v>0.03911039344507936</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.1573763333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.472129</v>
-      </c>
-      <c r="I21">
-        <v>0.03524397808035357</v>
-      </c>
-      <c r="J21">
-        <v>0.03524397808035358</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N21">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O21">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P21">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q21">
-        <v>0.01139430882722223</v>
+        <v>0.001529124075</v>
       </c>
       <c r="R21">
-        <v>0.102548779445</v>
+        <v>0.013762116675</v>
       </c>
       <c r="S21">
-        <v>3.293872358673931E-05</v>
+        <v>4.591605373302239E-06</v>
       </c>
       <c r="T21">
-        <v>3.29387235867393E-05</v>
+        <v>4.59160537330224E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H22">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J22">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N22">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O22">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P22">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q22">
-        <v>16.36090290713667</v>
+        <v>5.147158410426667</v>
       </c>
       <c r="R22">
-        <v>147.24812616423</v>
+        <v>46.32442569384</v>
       </c>
       <c r="S22">
-        <v>0.0472961780007355</v>
+        <v>0.01545572435941988</v>
       </c>
       <c r="T22">
-        <v>0.04729617800073549</v>
+        <v>0.01545572435941989</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H23">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J23">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>122.56588</v>
       </c>
       <c r="O23">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P23">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q23">
-        <v>20.52529081773333</v>
+        <v>5.054072153955556</v>
       </c>
       <c r="R23">
-        <v>184.7276173596</v>
+        <v>45.4866493856</v>
       </c>
       <c r="S23">
-        <v>0.05933461090395728</v>
+        <v>0.01517620789481033</v>
       </c>
       <c r="T23">
-        <v>0.05933461090395726</v>
+        <v>0.01517620789481034</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H24">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J24">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N24">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O24">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P24">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q24">
-        <v>0.01898665780666666</v>
+        <v>0.02970757870222222</v>
       </c>
       <c r="R24">
-        <v>0.17087992026</v>
+        <v>0.26736820832</v>
       </c>
       <c r="S24">
-        <v>5.488672308369073E-05</v>
+        <v>8.920497703688478E-05</v>
       </c>
       <c r="T24">
-        <v>5.488672308369072E-05</v>
+        <v>8.920497703688482E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H25">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J25">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N25">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O25">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P25">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q25">
-        <v>1.977986463133333</v>
+        <v>0.7779757220977777</v>
       </c>
       <c r="R25">
-        <v>17.8018781682</v>
+        <v>7.00178149888</v>
       </c>
       <c r="S25">
-        <v>0.005717972924501136</v>
+        <v>0.002336080874197763</v>
       </c>
       <c r="T25">
-        <v>0.005717972924501135</v>
+        <v>0.002336080874197764</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.50239</v>
+        <v>0.1237066666666667</v>
       </c>
       <c r="H26">
-        <v>1.50717</v>
+        <v>0.37112</v>
       </c>
       <c r="I26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674244</v>
       </c>
       <c r="J26">
-        <v>0.112508798322845</v>
+        <v>0.03306109951674245</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N26">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O26">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P26">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q26">
-        <v>0.03637387331666667</v>
+        <v>0.00129261096</v>
       </c>
       <c r="R26">
-        <v>0.32736485985</v>
+        <v>0.01163349864</v>
       </c>
       <c r="S26">
-        <v>0.0001051497705674209</v>
+        <v>3.881411277580837E-06</v>
       </c>
       <c r="T26">
-        <v>0.0001051497705674209</v>
+        <v>3.881411277580838E-06</v>
       </c>
     </row>
   </sheetData>
